--- a/Assets/StreamingAssets/8_Fu.xlsx
+++ b/Assets/StreamingAssets/8_Fu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB8E669-9C3A-5448-8C22-8567A8C21C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE3EA67-6BC8-BA46-B2FE-8B637245C1C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15860" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
+    <workbookView xWindow="17560" yWindow="500" windowWidth="28800" windowHeight="15860" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -180,26 +180,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I used to live in a town at the foot of the mountain.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alas, my family was impoverished, and I possessed no particular skills—only a talent for poetry and calligraphy.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A month ago, I happened to meet Ming in town. We got along very well, and he invited me to reside at the manor.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Since then, I’ve occasionally taught him a bit of poetry.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>When was the last time you saw Lord Xu?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>It may have been several days ago.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -228,19 +212,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>After the Shen hour (around 3–5 PM), when most had likely finished their lunch, I went to the dining hall.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>On the way back, I happened to see you and Ming chatting in the garden.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Around the second quarter of the Wu hour (approximately 7:15 PM), Ming suddenly knocked on my door, asking if I knew where the Lord was.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>I answered truthfully, and he left shortly after.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I used to live in JiuJiang county at the foot of the mountain.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alas, my family was impoverished, and I possessed no particular skills——only a talent for poetry and calligraphy.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A month ago, I happened to meet Ming in downtown. We got along very well, and he invited me to reside at the manor.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>When was the last time you saw the Lord?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Around 7.45 PM, Ming suddenly knocked on my door, asking if I knew where the Lord was.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>After around 3 PM, when most had likely finished their lunch, I went to the canteen.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -639,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7EEC272-F350-D34D-A243-3179172F76FB}">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -754,12 +754,12 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:16" ht="17">
+    <row r="4" spans="1:16" ht="34">
       <c r="A4" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
         <v>32</v>
@@ -774,12 +774,12 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:16" ht="34">
+    <row r="5" spans="1:16" ht="51">
       <c r="A5" t="s">
         <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -790,7 +790,7 @@
         <v>28</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
         <v>33</v>
@@ -810,7 +810,7 @@
         <v>28</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
         <v>33</v>
@@ -830,7 +830,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
         <v>22</v>
@@ -856,7 +856,7 @@
         <v>28</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
         <v>32</v>
@@ -876,7 +876,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
@@ -896,7 +896,7 @@
         <v>28</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
         <v>33</v>
@@ -916,7 +916,7 @@
         <v>28</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
         <v>33</v>
@@ -936,7 +936,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
@@ -956,7 +956,7 @@
         <v>28</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
         <v>32</v>
@@ -976,7 +976,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
         <v>25</v>
@@ -996,7 +996,7 @@
         <v>28</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
         <v>33</v>
@@ -1016,7 +1016,7 @@
         <v>28</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
         <v>33</v>
@@ -1031,7 +1031,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" ht="51">
+    <row r="18" spans="1:12" ht="34">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>28</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
         <v>32</v>
